--- a/漫展信息/北京-漫展信息.xlsx
+++ b/漫展信息/北京-漫展信息.xlsx
@@ -506,12 +506,10 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>22</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>88</t>
-        </is>
+        <v>24</v>
+      </c>
+      <c r="G2" t="n">
+        <v>88</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -528,26 +526,26 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2024.01.07</t>
+          <t>2024.01.13</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>北京·BFS宅舞同好派对（取消）</t>
+          <t>北京·Look Look动漫嘉年华4th</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>荣华中路国融国际 大兴云果国潮</t>
+          <t>夏家胡同与南三环西路辅路交叉口西北约80米 耕海联合中心</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2024.01.07 12:00-01.07 20:00</t>
+          <t>2024.01.13 10:00-01.14 17:00</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -555,11 +553,11 @@
         </is>
       </c>
       <c r="H3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79865&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=79087&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -569,38 +567,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2024.01.13</t>
+          <t>2024.01.14</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>北京·Look Look动漫嘉年华4th</t>
+          <t>北京·YIYOU 运动番 only 1.0  [免票活动]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>夏家胡同与南三环西路辅路交叉口西北约80米 耕海联合中心</t>
+          <t>京开高速入口与京开高速交叉口西180米 北京双马文体创业园</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2024.01.13 10:00-01.14 17:00</t>
+          <t>2024.01.14 10:00-01.14 18:00</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>40</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>不可售</t>
-        </is>
+        <v>273</v>
+      </c>
+      <c r="G4" t="n">
+        <v>20</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79087&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=80044&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -615,33 +611,31 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>北京·YIYOU 运动番 only 1.0  [免票活动]</t>
+          <t>北京·银泰in88新年动漫狂欢节 收官场【免票活动】</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>京开高速入口与京开高速交叉口西180米 北京双马文体创业园</t>
+          <t>王府井大街88号 北京王府井银泰in88购物中心</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2024.01.14 10:00-01.14 18:00</t>
+          <t>2024.01.14 10:00-01.14 16:00</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>220</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
+        <v>2027</v>
+      </c>
+      <c r="G5" t="n">
+        <v>58</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80044&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=78783&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -651,38 +645,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2024.01.14</t>
+          <t>2024.01.27</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>北京·银泰in88新年动漫狂欢节 收官场【免票活动】</t>
+          <t xml:space="preserve"> 北京·第十四届IJOY漫展x CGF游戏节——村上幸平专场见面会</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>王府井大街88号 北京王府井银泰in88购物中心</t>
+          <t>国家会议中心 国家会议中心</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2024.01.14 10:00-01.14 16:00</t>
+          <t>2024.01.27 09:00-01.27 17:00</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1556</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
+        <v>82</v>
+      </c>
+      <c r="G6" t="n">
+        <v>458</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=78783&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=79457&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -697,33 +689,31 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 北京·第十四届IJOY漫展x CGF游戏节——村上幸平专场见面会</t>
+          <t>北京·原神x穹铁北京同人嘉年华6th</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>国家会议中心 国家会议中心</t>
+          <t>北京国家会议中心 北京国家会议中心</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2024.01.27 09:00-01.27 17:00</t>
+          <t>2024.01.27 09:00-01.29 17:00</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>75</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>458</t>
-        </is>
+        <v>508</v>
+      </c>
+      <c r="G7" t="n">
+        <v>85</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79457&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=79421&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -738,7 +728,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>北京·原神x穹铁北京同人嘉年华6th</t>
+          <t>北京·国乙同好嘉年华5th</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -752,19 +742,17 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>417</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>85</t>
-        </is>
+        <v>431</v>
+      </c>
+      <c r="G8" t="n">
+        <v>88</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79421&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=78112&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -779,33 +767,31 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>北京·国乙同好嘉年华5th</t>
+          <t>北京·第十四届IJOY漫展x CGF游戏节——青柳尊哉专场见面会</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>北京国家会议中心 北京国家会议中心</t>
+          <t>国家会议中心 国家会议中心</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2024.01.27 09:00-01.29 17:00</t>
+          <t>2024.01.27 09:00-01.27 17:00</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>406</v>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>88</t>
-        </is>
+        <v>220</v>
+      </c>
+      <c r="G9" t="n">
+        <v>598</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=78112&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=79061&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -820,33 +806,31 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>北京·第十四届IJOY漫展x CGF游戏节——青柳尊哉专场见面会</t>
+          <t>北京·第十四届IJOY漫展xCGF游戏节</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>国家会议中心 国家会议中心</t>
+          <t>北京国家会议中心 北京国家会议中心</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2024.01.27 09:00-01.27 17:00</t>
+          <t>2024.01.27 09:00-01.29 17:00</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>210</v>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>598</t>
-        </is>
+        <v>7375</v>
+      </c>
+      <c r="G10" t="n">
+        <v>8.800000000000001</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79061&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=77785&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -856,38 +840,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2024.01.27</t>
+          <t>2024.01.28</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>北京·第十四届IJOY漫展xCGF游戏节</t>
+          <t>北京·第十四届IJOY漫展x CGF游戏节——岩永彻也专场见面会</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>北京国家会议中心 北京国家会议中心</t>
+          <t>国家会议中心 国家会议中心</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2024.01.27 09:00-01.29 17:00</t>
+          <t>2024.01.28 09:00-01.28 17:00</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>6698</v>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
+        <v>207</v>
+      </c>
+      <c r="G11" t="n">
+        <v>598</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=77785&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=79059&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -897,38 +879,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2024.01.28</t>
+          <t>2024.02.03</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>北京·第十四届IJOY漫展x CGF游戏节——岩永彻也专场见面会</t>
+          <t>北京·EXA·孤独摇滚ONLY</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>国家会议中心 国家会议中心</t>
+          <t>西三旗桥北路西88号 北京工美蓝孔雀商务酒店</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2024.01.28 09:00-01.28 17:00</t>
+          <t>2024.02.03 09:30-02.03 16:00</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>201</v>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>598</t>
-        </is>
+        <v>560</v>
+      </c>
+      <c r="G12" t="n">
+        <v>68</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79059&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=77799&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -943,33 +923,31 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>北京·EXA·孤独摇滚ONLY</t>
+          <t>北京·万游引力x云果 二次元新春大聚会</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>西三旗桥北路西88号 北京工美蓝孔雀商务酒店</t>
+          <t>嘉创二路6号 JDG英特尔电子竞技中心</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2024.02.03 09:30-02.03 16:00</t>
+          <t>2024.02.03 10:00-02.03 17:00</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>533</v>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>68</t>
-        </is>
+        <v>469</v>
+      </c>
+      <c r="G13" t="n">
+        <v>70</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=77799&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=79320&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -979,38 +957,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2024.02.03</t>
+          <t>2024.02.13</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>北京·万游引力x云果 二次元新春大聚会</t>
+          <t>北京·Look&amp;thebONE情人节专场</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>嘉创二路6号 JDG英特尔电子竞技中心</t>
+          <t>小关路39号 北投购物公园</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2024.02.03 10:00-02.03 17:00</t>
+          <t>2024.02.13 10:00-02.15 17:00</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>111</v>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>70</t>
-        </is>
+        <v>71</v>
+      </c>
+      <c r="G14" t="n">
+        <v>70</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79320&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=79089&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -1025,7 +1001,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>北京·Look&amp;thebONE情人节专场</t>
+          <t>北京·thebONE游戏动漫节</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1039,19 +1015,17 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>64</v>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>70</t>
-        </is>
+        <v>3153</v>
+      </c>
+      <c r="G15" t="n">
+        <v>19.9</v>
       </c>
       <c r="H15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79089&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=79611&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -1061,38 +1035,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2024.02.13</t>
+          <t>2024.02.14</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>北京·thebONE游戏动漫节</t>
+          <t>北京·ICOS SP漫展03x五只猫</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>小关路39号 北投购物公园</t>
+          <t>北京电影学院影视文化产业创新园平房园区 北京五只猫娱乐Mall</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2024.02.13 10:00-02.15 17:00</t>
+          <t>2024.02.14 09:00-02.15 17:00</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2353</v>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
+        <v>1814</v>
+      </c>
+      <c r="G16" t="n">
+        <v>75</v>
       </c>
       <c r="H16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79611&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=77992&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -1102,38 +1074,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2024.02.14</t>
+          <t>2024.02.16</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>北京·ICOS SP漫展03x五只猫</t>
+          <t>北京·原神X星穹铁道ONLY</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>北京电影学院影视文化产业创新园平房园区 北京五只猫娱乐Mall</t>
+          <t>永外高庄138号  大红门会展中心</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2024.02.14 09:00-02.15 17:00</t>
+          <t>2024.02.16 10:00-02.16 17:00</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1726</v>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>75</t>
-        </is>
+        <v>161</v>
+      </c>
+      <c r="G17" t="n">
+        <v>60</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=77992&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=79517&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -1148,33 +1118,31 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>北京·原神X星穹铁道ONLY</t>
+          <t>北京·古谷PLAZA(谷子市集)</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>永外高庄138号  大红门会展中心</t>
+          <t>东打磨厂街7号宝鼎中心A座 新活馆</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2024.02.16 10:00-02.16 17:00</t>
+          <t>2024.02.16 13:00-02.17 17:30</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>140</v>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
+        <v>12</v>
+      </c>
+      <c r="G18" t="n">
+        <v>21.9</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79517&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=80648&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -1203,12 +1171,10 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>44</v>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>48</t>
-        </is>
+        <v>52</v>
+      </c>
+      <c r="G19" t="n">
+        <v>48</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -1244,12 +1210,10 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>95</v>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>55</t>
-        </is>
+        <v>110</v>
+      </c>
+      <c r="G20" t="n">
+        <v>55</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1271,7 +1235,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 北京·2023年秋季次元嘉年华</t>
+          <t xml:space="preserve"> 北京·2024年新春次元嘉年华</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1285,12 +1249,10 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>166</v>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>65</t>
-        </is>
+        <v>177</v>
+      </c>
+      <c r="G21" t="n">
+        <v>65</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1326,12 +1288,10 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>103</v>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>75</t>
-        </is>
+        <v>124</v>
+      </c>
+      <c r="G22" t="n">
+        <v>75</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1367,12 +1327,10 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>55</v>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
+        <v>58</v>
+      </c>
+      <c r="G23" t="n">
+        <v>60</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1394,33 +1352,31 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>北京·thebONE✖️GOJO超次元嘉年华02</t>
+          <t>北京· YiYou 运动番only 2.0</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>小关路39号 北投购物公园</t>
+          <t>京开高速入口与京开高速交叉口西180米 北京双马文体创业园</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2024.03.16 10:00-03.17 17:00</t>
+          <t>2024.03.16 09:30-03.17 18:00</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>79</v>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>70</t>
-        </is>
+        <v>182</v>
+      </c>
+      <c r="G24" t="n">
+        <v>60</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=78896&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=78902&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -1430,12 +1386,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2024.03.23</t>
+          <t>2024.03.16</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>北京·thebONE×Ilike动漫游戏嘉年华S4</t>
+          <t>北京·thebONE✖️GOJO超次元嘉年华02</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1445,23 +1401,21 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2024.03.23 10:00-03.24 17:00</t>
+          <t>2024.03.16 10:00-03.17 17:00</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>968</v>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
+        <v>83</v>
+      </c>
+      <c r="G25" t="n">
+        <v>70</v>
       </c>
       <c r="H25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79601&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=78896&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -1476,33 +1430,31 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>北京·yiyou 双马 运动番动漫展</t>
+          <t>北京·thebONE×Ilike动漫游戏嘉年华S4</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>京开高速入口与京开高速交叉口西180米 北京双马文体创业园</t>
+          <t>小关路39号 北投购物公园</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2024.03.23 09:30-03.24 18:00</t>
+          <t>2024.03.23 10:00-03.24 17:00</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>164</v>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
+        <v>988</v>
+      </c>
+      <c r="G26" t="n">
+        <v>58</v>
       </c>
       <c r="H26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=78902&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=79601&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -1531,12 +1483,10 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>95</v>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
+        <v>210</v>
+      </c>
+      <c r="G27" t="n">
+        <v>60</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
@@ -1572,12 +1522,10 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>4092</v>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>75</t>
-        </is>
+        <v>4138</v>
+      </c>
+      <c r="G28" t="n">
+        <v>75</v>
       </c>
       <c r="H28" t="b">
         <v>1</v>
@@ -1721,12 +1669,10 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>66</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
+        <v>79</v>
+      </c>
+      <c r="G2" t="n">
+        <v>80</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -1762,12 +1708,10 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>18</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>380</t>
-        </is>
+        <v>30</v>
+      </c>
+      <c r="G3" t="n">
+        <v>380</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -1803,12 +1747,10 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>9</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>90</t>
-        </is>
+        <v>15</v>
+      </c>
+      <c r="G4" t="n">
+        <v>90</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -1952,12 +1894,10 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>114</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
+        <v>130</v>
+      </c>
+      <c r="G2" t="n">
+        <v>30</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -1993,12 +1933,10 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>668</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
+        <v>732</v>
+      </c>
+      <c r="G3" t="n">
+        <v>20</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -2142,12 +2080,10 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>114</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
+        <v>130</v>
+      </c>
+      <c r="G2" t="n">
+        <v>30</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -2183,12 +2119,10 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>22</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>88</t>
-        </is>
+        <v>24</v>
+      </c>
+      <c r="G3" t="n">
+        <v>88</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -2224,12 +2158,10 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>668</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
+        <v>732</v>
+      </c>
+      <c r="G4" t="n">
+        <v>20</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -2246,26 +2178,26 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2024.01.07</t>
+          <t>2024.01.13</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>北京·BFS宅舞同好派对（取消）</t>
+          <t>北京·Look Look动漫嘉年华4th</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>荣华中路国融国际 大兴云果国潮</t>
+          <t>夏家胡同与南三环西路辅路交叉口西北约80米 耕海联合中心</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2024.01.07 12:00-01.07 20:00</t>
+          <t>2024.01.13 10:00-01.14 17:00</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -2273,11 +2205,11 @@
         </is>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79865&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=79087&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -2292,33 +2224,31 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>北京·Look Look动漫嘉年华4th</t>
+          <t>北京·原神观影会only</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>夏家胡同与南三环西路辅路交叉口西北约80米 耕海联合中心</t>
+          <t>学院南路50号哇沃生活广场3楼 深影国际影城</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2024.01.13 10:00-01.14 17:00</t>
+          <t>2024.01.13 14:30-01.13 18:30</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>40</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>不可售</t>
-        </is>
+        <v>79</v>
+      </c>
+      <c r="G6" t="n">
+        <v>80</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79087&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=80250&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -2328,38 +2258,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2024.01.13</t>
+          <t>2024.01.14</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>北京·原神观影会only</t>
+          <t>北京·YIYOU 运动番 only 1.0  [免票活动]</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>学院南路50号哇沃生活广场3楼 深影国际影城</t>
+          <t>京开高速入口与京开高速交叉口西180米 北京双马文体创业园</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2024.01.13 14:30-01.13 18:30</t>
+          <t>2024.01.14 10:00-01.14 18:00</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>66</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
+        <v>273</v>
+      </c>
+      <c r="G7" t="n">
+        <v>20</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80250&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=80044&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -2374,33 +2302,31 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>北京·YIYOU 运动番 only 1.0  [免票活动]</t>
+          <t>北京·银泰in88新年动漫狂欢节 收官场【免票活动】</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>京开高速入口与京开高速交叉口西180米 北京双马文体创业园</t>
+          <t>王府井大街88号 北京王府井银泰in88购物中心</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2024.01.14 10:00-01.14 18:00</t>
+          <t>2024.01.14 10:00-01.14 16:00</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>220</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
+        <v>2027</v>
+      </c>
+      <c r="G8" t="n">
+        <v>58</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80044&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=78783&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -2410,38 +2336,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2024.01.14</t>
+          <t>2024.01.25</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>北京·银泰in88新年动漫狂欢节 收官场【免票活动】</t>
+          <t>北京·Nanawo Akari  七音阿卡丽-演唱会</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>王府井大街88号 北京王府井银泰in88购物中心</t>
+          <t>建国门外郎家园10号61幢一层A3-06、二层A3-06 East live</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2024.01.14 10:00-01.14 16:00</t>
+          <t>2024.01.25 20:00-01.25 22:00</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1556</v>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
+        <v>30</v>
+      </c>
+      <c r="G9" t="n">
+        <v>380</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=78783&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=80276&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -2451,38 +2375,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2024.01.25</t>
+          <t>2024.01.26</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>北京·Nanawo Akari  七音阿卡丽-演唱会</t>
+          <t xml:space="preserve">北京·戳心场！向着疾风前进《你的名字》《火影忍者》《鬼灭之刃》热血动漫名曲ACG音乐演奏会 </t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>建国门外郎家园10号61幢一层A3-06、二层A3-06 East live</t>
+          <t>三里屯SOHO下沉广场最南端,6号商场B1层 三里屯·爱乐汇艺术空间</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2024.01.25 20:00-01.25 22:00</t>
+          <t>2024.01.26 19:30-01.26 21:00</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>18</v>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>380</t>
-        </is>
+        <v>15</v>
+      </c>
+      <c r="G10" t="n">
+        <v>90</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80276&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=80452&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -2492,38 +2414,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2024.01.26</t>
+          <t>2024.01.27</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t xml:space="preserve">北京·戳心场！向着疾风前进《你的名字》《火影忍者》《鬼灭之刃》热血动漫名曲ACG音乐演奏会 </t>
+          <t xml:space="preserve"> 北京·第十四届IJOY漫展x CGF游戏节——村上幸平专场见面会</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>三里屯SOHO下沉广场最南端,6号商场B1层 三里屯·爱乐汇艺术空间</t>
+          <t>国家会议中心 国家会议中心</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2024.01.26 19:30-01.26 21:00</t>
+          <t>2024.01.27 09:00-01.27 17:00</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>9</v>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>90</t>
-        </is>
+        <v>82</v>
+      </c>
+      <c r="G11" t="n">
+        <v>458</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80452&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=79457&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -2538,33 +2458,31 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 北京·第十四届IJOY漫展x CGF游戏节——村上幸平专场见面会</t>
+          <t>北京·原神x穹铁北京同人嘉年华6th</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>国家会议中心 国家会议中心</t>
+          <t>北京国家会议中心 北京国家会议中心</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2024.01.27 09:00-01.27 17:00</t>
+          <t>2024.01.27 09:00-01.29 17:00</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>75</v>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>458</t>
-        </is>
+        <v>508</v>
+      </c>
+      <c r="G12" t="n">
+        <v>85</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79457&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=79421&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -2579,7 +2497,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>北京·原神x穹铁北京同人嘉年华6th</t>
+          <t>北京·国乙同好嘉年华5th</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -2593,19 +2511,17 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>417</v>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>85</t>
-        </is>
+        <v>431</v>
+      </c>
+      <c r="G13" t="n">
+        <v>88</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79421&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=78112&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -2620,33 +2536,31 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>北京·国乙同好嘉年华5th</t>
+          <t>北京·第十四届IJOY漫展x CGF游戏节——青柳尊哉专场见面会</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>北京国家会议中心 北京国家会议中心</t>
+          <t>国家会议中心 国家会议中心</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2024.01.27 09:00-01.29 17:00</t>
+          <t>2024.01.27 09:00-01.27 17:00</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>406</v>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>88</t>
-        </is>
+        <v>220</v>
+      </c>
+      <c r="G14" t="n">
+        <v>598</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=78112&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=79061&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -2661,33 +2575,31 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>北京·第十四届IJOY漫展x CGF游戏节——青柳尊哉专场见面会</t>
+          <t>北京·第十四届IJOY漫展xCGF游戏节</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>国家会议中心 国家会议中心</t>
+          <t>北京国家会议中心 北京国家会议中心</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2024.01.27 09:00-01.27 17:00</t>
+          <t>2024.01.27 09:00-01.29 17:00</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>210</v>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>598</t>
-        </is>
+        <v>7376</v>
+      </c>
+      <c r="G15" t="n">
+        <v>8.800000000000001</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79061&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=77785&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -2697,38 +2609,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2024.01.27</t>
+          <t>2024.01.28</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>北京·第十四届IJOY漫展xCGF游戏节</t>
+          <t>北京·第十四届IJOY漫展x CGF游戏节——岩永彻也专场见面会</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>北京国家会议中心 北京国家会议中心</t>
+          <t>国家会议中心 国家会议中心</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2024.01.27 09:00-01.29 17:00</t>
+          <t>2024.01.28 09:00-01.28 17:00</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>6698</v>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
+        <v>207</v>
+      </c>
+      <c r="G16" t="n">
+        <v>598</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=77785&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=79059&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -2738,38 +2648,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2024.01.28</t>
+          <t>2024.02.03</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>北京·第十四届IJOY漫展x CGF游戏节——岩永彻也专场见面会</t>
+          <t>北京·EXA·孤独摇滚ONLY</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>国家会议中心 国家会议中心</t>
+          <t>西三旗桥北路西88号 北京工美蓝孔雀商务酒店</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2024.01.28 09:00-01.28 17:00</t>
+          <t>2024.02.03 09:30-02.03 16:00</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>201</v>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>598</t>
-        </is>
+        <v>560</v>
+      </c>
+      <c r="G17" t="n">
+        <v>68</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79059&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=77799&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -2784,33 +2692,31 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>北京·EXA·孤独摇滚ONLY</t>
+          <t>北京·万游引力x云果 二次元新春大聚会</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>西三旗桥北路西88号 北京工美蓝孔雀商务酒店</t>
+          <t>嘉创二路6号 JDG英特尔电子竞技中心</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2024.02.03 09:30-02.03 16:00</t>
+          <t>2024.02.03 10:00-02.03 17:00</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>533</v>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>68</t>
-        </is>
+        <v>469</v>
+      </c>
+      <c r="G18" t="n">
+        <v>70</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=77799&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=79320&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -2820,38 +2726,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2024.02.03</t>
+          <t>2024.02.13</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>北京·万游引力x云果 二次元新春大聚会</t>
+          <t>北京·Look&amp;thebONE情人节专场</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>嘉创二路6号 JDG英特尔电子竞技中心</t>
+          <t>小关路39号 北投购物公园</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2024.02.03 10:00-02.03 17:00</t>
+          <t>2024.02.13 10:00-02.15 17:00</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>111</v>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>70</t>
-        </is>
+        <v>71</v>
+      </c>
+      <c r="G19" t="n">
+        <v>70</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79320&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=79089&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -2866,7 +2770,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>北京·Look&amp;thebONE情人节专场</t>
+          <t>北京·thebONE游戏动漫节</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -2880,19 +2784,17 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>64</v>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>70</t>
-        </is>
+        <v>3153</v>
+      </c>
+      <c r="G20" t="n">
+        <v>19.9</v>
       </c>
       <c r="H20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79089&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=79611&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -2902,38 +2804,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2024.02.13</t>
+          <t>2024.02.14</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>北京·thebONE游戏动漫节</t>
+          <t>北京·ICOS SP漫展03x五只猫</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>小关路39号 北投购物公园</t>
+          <t>北京电影学院影视文化产业创新园平房园区 北京五只猫娱乐Mall</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2024.02.13 10:00-02.15 17:00</t>
+          <t>2024.02.14 09:00-02.15 17:00</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2353</v>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
+        <v>1814</v>
+      </c>
+      <c r="G21" t="n">
+        <v>75</v>
       </c>
       <c r="H21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79611&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=77992&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -2943,38 +2843,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2024.02.14</t>
+          <t>2024.02.16</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>北京·ICOS SP漫展03x五只猫</t>
+          <t>北京·原神X星穹铁道ONLY</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>北京电影学院影视文化产业创新园平房园区 北京五只猫娱乐Mall</t>
+          <t>永外高庄138号  大红门会展中心</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2024.02.14 09:00-02.15 17:00</t>
+          <t>2024.02.16 10:00-02.16 17:00</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1726</v>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>75</t>
-        </is>
+        <v>161</v>
+      </c>
+      <c r="G22" t="n">
+        <v>60</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=77992&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=79517&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -2989,33 +2887,31 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>北京·原神X星穹铁道ONLY</t>
+          <t>北京·古谷PLAZA(谷子市集)</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>永外高庄138号  大红门会展中心</t>
+          <t>东打磨厂街7号宝鼎中心A座 新活馆</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2024.02.16 10:00-02.16 17:00</t>
+          <t>2024.02.16 13:00-02.17 17:30</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>140</v>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
+        <v>12</v>
+      </c>
+      <c r="G23" t="n">
+        <v>21.9</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79517&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=80648&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -3044,12 +2940,10 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>44</v>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>48</t>
-        </is>
+        <v>52</v>
+      </c>
+      <c r="G24" t="n">
+        <v>48</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
@@ -3085,12 +2979,10 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>95</v>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>55</t>
-        </is>
+        <v>110</v>
+      </c>
+      <c r="G25" t="n">
+        <v>55</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -3112,7 +3004,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 北京·2023年秋季次元嘉年华</t>
+          <t xml:space="preserve"> 北京·2024年新春次元嘉年华</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -3126,12 +3018,10 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>166</v>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>65</t>
-        </is>
+        <v>177</v>
+      </c>
+      <c r="G26" t="n">
+        <v>65</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -3167,12 +3057,10 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>103</v>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>75</t>
-        </is>
+        <v>124</v>
+      </c>
+      <c r="G27" t="n">
+        <v>75</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
@@ -3208,12 +3096,10 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>55</v>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
+        <v>58</v>
+      </c>
+      <c r="G28" t="n">
+        <v>60</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -3235,33 +3121,31 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>北京·thebONE✖️GOJO超次元嘉年华02</t>
+          <t>北京· YiYou 运动番only 2.0</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>小关路39号 北投购物公园</t>
+          <t>京开高速入口与京开高速交叉口西180米 北京双马文体创业园</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2024.03.16 10:00-03.17 17:00</t>
+          <t>2024.03.16 09:30-03.17 18:00</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>79</v>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>70</t>
-        </is>
+        <v>182</v>
+      </c>
+      <c r="G29" t="n">
+        <v>60</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=78896&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=78902&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -3271,12 +3155,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2024.03.23</t>
+          <t>2024.03.16</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>北京·thebONE×Ilike动漫游戏嘉年华S4</t>
+          <t>北京·thebONE✖️GOJO超次元嘉年华02</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -3286,23 +3170,21 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2024.03.23 10:00-03.24 17:00</t>
+          <t>2024.03.16 10:00-03.17 17:00</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>968</v>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
+        <v>83</v>
+      </c>
+      <c r="G30" t="n">
+        <v>70</v>
       </c>
       <c r="H30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79601&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=78896&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -3317,33 +3199,31 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>北京·yiyou 双马 运动番动漫展</t>
+          <t>北京·thebONE×Ilike动漫游戏嘉年华S4</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>京开高速入口与京开高速交叉口西180米 北京双马文体创业园</t>
+          <t>小关路39号 北投购物公园</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2024.03.23 09:30-03.24 18:00</t>
+          <t>2024.03.23 10:00-03.24 17:00</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>164</v>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
+        <v>988</v>
+      </c>
+      <c r="G31" t="n">
+        <v>58</v>
       </c>
       <c r="H31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=78902&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=79601&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -3372,12 +3252,10 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>95</v>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
+        <v>210</v>
+      </c>
+      <c r="G32" t="n">
+        <v>60</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -3413,12 +3291,10 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>4092</v>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>75</t>
-        </is>
+        <v>4138</v>
+      </c>
+      <c r="G33" t="n">
+        <v>75</v>
       </c>
       <c r="H33" t="b">
         <v>1</v>

--- a/漫展信息/北京-漫展信息.xlsx
+++ b/漫展信息/北京-漫展信息.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J36"/>
+  <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,11 +477,6 @@
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>是否有舞台（字符串匹配）</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
           <t>Link</t>
         </is>
       </c>
@@ -517,10 +512,7 @@
       <c r="H2" t="n">
         <v>88</v>
       </c>
-      <c r="I2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=79158&amp;msource=Msearch_colligation</t>
         </is>
@@ -557,10 +549,7 @@
       <c r="H3" t="n">
         <v>458</v>
       </c>
-      <c r="I3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=79457&amp;msource=Msearch_colligation</t>
         </is>
@@ -599,10 +588,7 @@
           <t>不可售</t>
         </is>
       </c>
-      <c r="I4" t="b">
-        <v>0</v>
-      </c>
-      <c r="J4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=79421&amp;msource=Msearch_colligation</t>
         </is>
@@ -641,10 +627,7 @@
           <t>不可售</t>
         </is>
       </c>
-      <c r="I5" t="b">
-        <v>0</v>
-      </c>
-      <c r="J5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=78112&amp;msource=Msearch_colligation</t>
         </is>
@@ -676,15 +659,12 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H6" t="n">
         <v>598</v>
       </c>
-      <c r="I6" t="b">
-        <v>0</v>
-      </c>
-      <c r="J6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=79061&amp;msource=Msearch_colligation</t>
         </is>
@@ -716,15 +696,12 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>9240</v>
+        <v>9248</v>
       </c>
       <c r="H7" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="I7" t="b">
-        <v>0</v>
-      </c>
-      <c r="J7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=77785&amp;msource=Msearch_colligation</t>
         </is>
@@ -756,15 +733,12 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H8" t="n">
         <v>598</v>
       </c>
-      <c r="I8" t="b">
-        <v>0</v>
-      </c>
-      <c r="J8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=79059&amp;msource=Msearch_colligation</t>
         </is>
@@ -796,15 +770,12 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="H9" t="n">
         <v>158</v>
       </c>
-      <c r="I9" t="b">
-        <v>0</v>
-      </c>
-      <c r="J9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=81223&amp;msource=Msearch_colligation</t>
         </is>
@@ -836,15 +807,12 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="H10" t="n">
         <v>68</v>
       </c>
-      <c r="I10" t="b">
-        <v>0</v>
-      </c>
-      <c r="J10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=77799&amp;msource=Msearch_colligation</t>
         </is>
@@ -876,15 +844,12 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1760</v>
+        <v>1771</v>
       </c>
       <c r="H11" t="n">
         <v>75</v>
       </c>
-      <c r="I11" t="b">
-        <v>0</v>
-      </c>
-      <c r="J11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=79320&amp;msource=Msearch_colligation</t>
         </is>
@@ -921,10 +886,7 @@
       <c r="H12" t="n">
         <v>158</v>
       </c>
-      <c r="I12" t="b">
-        <v>0</v>
-      </c>
-      <c r="J12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=80655&amp;msource=Msearch_colligation</t>
         </is>
@@ -956,15 +918,12 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="H13" t="n">
         <v>49</v>
       </c>
-      <c r="I13" t="b">
-        <v>0</v>
-      </c>
-      <c r="J13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=80852&amp;msource=Msearch_colligation</t>
         </is>
@@ -996,15 +955,12 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2414</v>
+        <v>2424</v>
       </c>
       <c r="H14" t="n">
         <v>75</v>
       </c>
-      <c r="I14" t="b">
-        <v>0</v>
-      </c>
-      <c r="J14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=77992&amp;msource=Msearch_colligation</t>
         </is>
@@ -1041,10 +997,7 @@
       <c r="H15" t="n">
         <v>70</v>
       </c>
-      <c r="I15" t="b">
-        <v>0</v>
-      </c>
-      <c r="J15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=79089&amp;msource=Msearch_colligation</t>
         </is>
@@ -1076,15 +1029,12 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>3686</v>
+        <v>3699</v>
       </c>
       <c r="H16" t="n">
         <v>19.9</v>
       </c>
-      <c r="I16" t="b">
-        <v>1</v>
-      </c>
-      <c r="J16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=79611&amp;msource=Msearch_colligation</t>
         </is>
@@ -1116,15 +1066,12 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H17" t="n">
         <v>60</v>
       </c>
-      <c r="I17" t="b">
-        <v>0</v>
-      </c>
-      <c r="J17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=79517&amp;msource=Msearch_colligation</t>
         </is>
@@ -1156,15 +1103,12 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H18" t="n">
         <v>21.9</v>
       </c>
-      <c r="I18" t="b">
-        <v>0</v>
-      </c>
-      <c r="J18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=80648&amp;msource=Msearch_colligation</t>
         </is>
@@ -1201,10 +1145,7 @@
       <c r="H19" t="n">
         <v>48</v>
       </c>
-      <c r="I19" t="b">
-        <v>0</v>
-      </c>
-      <c r="J19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=80337&amp;msource=Msearch_colligation</t>
         </is>
@@ -1241,10 +1182,7 @@
       <c r="H20" t="n">
         <v>55</v>
       </c>
-      <c r="I20" t="b">
-        <v>0</v>
-      </c>
-      <c r="J20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=79524&amp;msource=Msearch_colligation</t>
         </is>
@@ -1276,15 +1214,12 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H21" t="n">
         <v>65</v>
       </c>
-      <c r="I21" t="b">
-        <v>0</v>
-      </c>
-      <c r="J21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=77369&amp;msource=Msearch_colligation</t>
         </is>
@@ -1316,15 +1251,12 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="H22" t="n">
         <v>75</v>
       </c>
-      <c r="I22" t="b">
-        <v>0</v>
-      </c>
-      <c r="J22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=79322&amp;msource=Msearch_colligation</t>
         </is>
@@ -1356,15 +1288,12 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H23" t="n">
         <v>60</v>
       </c>
-      <c r="I23" t="b">
-        <v>0</v>
-      </c>
-      <c r="J23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=80347&amp;msource=Msearch_colligation</t>
         </is>
@@ -1396,15 +1325,12 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H24" t="n">
         <v>93</v>
       </c>
-      <c r="I24" t="b">
-        <v>0</v>
-      </c>
-      <c r="J24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=81043&amp;msource=Msearch_colligation</t>
         </is>
@@ -1441,10 +1367,7 @@
       <c r="H25" t="n">
         <v>60</v>
       </c>
-      <c r="I25" t="b">
-        <v>0</v>
-      </c>
-      <c r="J25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=78902&amp;msource=Msearch_colligation</t>
         </is>
@@ -1476,15 +1399,12 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="H26" t="n">
         <v>49.9</v>
       </c>
-      <c r="I26" t="b">
-        <v>1</v>
-      </c>
-      <c r="J26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=80972&amp;msource=Msearch_colligation</t>
         </is>
@@ -1521,10 +1441,7 @@
       <c r="H27" t="n">
         <v>70</v>
       </c>
-      <c r="I27" t="b">
-        <v>1</v>
-      </c>
-      <c r="J27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=78896&amp;msource=Msearch_colligation</t>
         </is>
@@ -1556,15 +1473,12 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="H28" t="n">
         <v>58</v>
       </c>
-      <c r="I28" t="b">
-        <v>1</v>
-      </c>
-      <c r="J28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=79601&amp;msource=Msearch_colligation</t>
         </is>
@@ -1601,10 +1515,7 @@
       <c r="H29" t="n">
         <v>60</v>
       </c>
-      <c r="I29" t="b">
-        <v>0</v>
-      </c>
-      <c r="J29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=80510&amp;msource=Msearch_colligation</t>
         </is>
@@ -1636,15 +1547,12 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>4286</v>
+        <v>4287</v>
       </c>
       <c r="H30" t="n">
         <v>75</v>
       </c>
-      <c r="I30" t="b">
-        <v>1</v>
-      </c>
-      <c r="J30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=76891&amp;msource=Msearch_colligation</t>
         </is>
@@ -1683,10 +1591,7 @@
           <t>不可售</t>
         </is>
       </c>
-      <c r="I31" t="b">
-        <v>0</v>
-      </c>
-      <c r="J31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=80825&amp;msource=Msearch_colligation</t>
         </is>
@@ -1718,15 +1623,12 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="H32" t="n">
         <v>75</v>
       </c>
-      <c r="I32" t="b">
-        <v>0</v>
-      </c>
-      <c r="J32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=80645&amp;msource=Msearch_colligation</t>
         </is>
@@ -1758,17 +1660,14 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
           <t>不可售</t>
         </is>
       </c>
-      <c r="I33" t="b">
-        <v>0</v>
-      </c>
-      <c r="J33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=81183&amp;msource=Msearch_colligation</t>
         </is>
@@ -1786,7 +1685,6 @@
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1800,7 +1698,6 @@
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1819,7 +1716,6 @@
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1832,7 +1728,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1881,11 +1777,6 @@
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>是否有舞台（字符串匹配）</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
           <t>Link</t>
         </is>
       </c>
@@ -1921,10 +1812,7 @@
       <c r="H2" t="n">
         <v>380</v>
       </c>
-      <c r="I2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=80276&amp;msource=Msearch_colligation</t>
         </is>
@@ -1961,10 +1849,7 @@
       <c r="H3" t="n">
         <v>90</v>
       </c>
-      <c r="I3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=80452&amp;msource=Msearch_colligation</t>
         </is>
@@ -2001,10 +1886,7 @@
       <c r="H4" t="n">
         <v>180</v>
       </c>
-      <c r="I4" t="b">
-        <v>0</v>
-      </c>
-      <c r="J4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=80932&amp;msource=Msearch_colligation</t>
         </is>
@@ -2041,10 +1923,7 @@
       <c r="H5" t="n">
         <v>88</v>
       </c>
-      <c r="I5" t="b">
-        <v>0</v>
-      </c>
-      <c r="J5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=80650&amp;msource=Msearch_colligation</t>
         </is>
@@ -2076,15 +1955,12 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H6" t="n">
         <v>680</v>
       </c>
-      <c r="I6" t="b">
-        <v>1</v>
-      </c>
-      <c r="J6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=80957&amp;msource=Msearch_colligation</t>
         </is>
@@ -2102,7 +1978,6 @@
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -2116,7 +1991,6 @@
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -2135,7 +2009,6 @@
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2148,7 +2021,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2197,11 +2070,6 @@
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>是否有舞台（字符串匹配）</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
           <t>Link</t>
         </is>
       </c>
@@ -2232,15 +2100,12 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H2" t="n">
         <v>30</v>
       </c>
-      <c r="I2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=79831&amp;msource=Msearch_colligation</t>
         </is>
@@ -2272,15 +2137,12 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>927</v>
+        <v>929</v>
       </c>
       <c r="H3" t="n">
         <v>20</v>
       </c>
-      <c r="I3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=80186&amp;msource=Msearch_colligation</t>
         </is>
@@ -2298,7 +2160,6 @@
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -2312,7 +2173,6 @@
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -2331,7 +2191,6 @@
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2344,7 +2203,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J44"/>
+  <dimension ref="A1:I44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2393,11 +2252,6 @@
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>是否有舞台（字符串匹配）</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
           <t>Link</t>
         </is>
       </c>
@@ -2428,15 +2282,12 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H2" t="n">
         <v>30</v>
       </c>
-      <c r="I2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=79831&amp;msource=Msearch_colligation</t>
         </is>
@@ -2473,10 +2324,7 @@
       <c r="H3" t="n">
         <v>88</v>
       </c>
-      <c r="I3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=79158&amp;msource=Msearch_colligation</t>
         </is>
@@ -2508,15 +2356,12 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>927</v>
+        <v>929</v>
       </c>
       <c r="H4" t="n">
         <v>20</v>
       </c>
-      <c r="I4" t="b">
-        <v>0</v>
-      </c>
-      <c r="J4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=80186&amp;msource=Msearch_colligation</t>
         </is>
@@ -2553,10 +2398,7 @@
       <c r="H5" t="n">
         <v>380</v>
       </c>
-      <c r="I5" t="b">
-        <v>0</v>
-      </c>
-      <c r="J5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=80276&amp;msource=Msearch_colligation</t>
         </is>
@@ -2593,10 +2435,7 @@
       <c r="H6" t="n">
         <v>90</v>
       </c>
-      <c r="I6" t="b">
-        <v>0</v>
-      </c>
-      <c r="J6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=80452&amp;msource=Msearch_colligation</t>
         </is>
@@ -2633,10 +2472,7 @@
       <c r="H7" t="n">
         <v>458</v>
       </c>
-      <c r="I7" t="b">
-        <v>0</v>
-      </c>
-      <c r="J7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=79457&amp;msource=Msearch_colligation</t>
         </is>
@@ -2675,10 +2511,7 @@
           <t>不可售</t>
         </is>
       </c>
-      <c r="I8" t="b">
-        <v>0</v>
-      </c>
-      <c r="J8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=79421&amp;msource=Msearch_colligation</t>
         </is>
@@ -2717,10 +2550,7 @@
           <t>不可售</t>
         </is>
       </c>
-      <c r="I9" t="b">
-        <v>0</v>
-      </c>
-      <c r="J9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=78112&amp;msource=Msearch_colligation</t>
         </is>
@@ -2752,15 +2582,12 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H10" t="n">
         <v>598</v>
       </c>
-      <c r="I10" t="b">
-        <v>0</v>
-      </c>
-      <c r="J10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=79061&amp;msource=Msearch_colligation</t>
         </is>
@@ -2792,15 +2619,12 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>9240</v>
+        <v>9248</v>
       </c>
       <c r="H11" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="I11" t="b">
-        <v>0</v>
-      </c>
-      <c r="J11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=77785&amp;msource=Msearch_colligation</t>
         </is>
@@ -2832,15 +2656,12 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H12" t="n">
         <v>598</v>
       </c>
-      <c r="I12" t="b">
-        <v>0</v>
-      </c>
-      <c r="J12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=79059&amp;msource=Msearch_colligation</t>
         </is>
@@ -2872,15 +2693,12 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="H13" t="n">
         <v>158</v>
       </c>
-      <c r="I13" t="b">
-        <v>0</v>
-      </c>
-      <c r="J13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=81223&amp;msource=Msearch_colligation</t>
         </is>
@@ -2912,15 +2730,12 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="H14" t="n">
         <v>68</v>
       </c>
-      <c r="I14" t="b">
-        <v>0</v>
-      </c>
-      <c r="J14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=77799&amp;msource=Msearch_colligation</t>
         </is>
@@ -2952,15 +2767,12 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1760</v>
+        <v>1771</v>
       </c>
       <c r="H15" t="n">
         <v>75</v>
       </c>
-      <c r="I15" t="b">
-        <v>0</v>
-      </c>
-      <c r="J15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=79320&amp;msource=Msearch_colligation</t>
         </is>
@@ -2997,10 +2809,7 @@
       <c r="H16" t="n">
         <v>158</v>
       </c>
-      <c r="I16" t="b">
-        <v>0</v>
-      </c>
-      <c r="J16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=80655&amp;msource=Msearch_colligation</t>
         </is>
@@ -3032,15 +2841,12 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="H17" t="n">
         <v>49</v>
       </c>
-      <c r="I17" t="b">
-        <v>0</v>
-      </c>
-      <c r="J17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=80852&amp;msource=Msearch_colligation</t>
         </is>
@@ -3077,10 +2883,7 @@
       <c r="H18" t="n">
         <v>180</v>
       </c>
-      <c r="I18" t="b">
-        <v>0</v>
-      </c>
-      <c r="J18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=80932&amp;msource=Msearch_colligation</t>
         </is>
@@ -3112,15 +2915,12 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2414</v>
+        <v>2424</v>
       </c>
       <c r="H19" t="n">
         <v>75</v>
       </c>
-      <c r="I19" t="b">
-        <v>0</v>
-      </c>
-      <c r="J19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=77992&amp;msource=Msearch_colligation</t>
         </is>
@@ -3157,10 +2957,7 @@
       <c r="H20" t="n">
         <v>70</v>
       </c>
-      <c r="I20" t="b">
-        <v>0</v>
-      </c>
-      <c r="J20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=79089&amp;msource=Msearch_colligation</t>
         </is>
@@ -3192,15 +2989,12 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>3686</v>
+        <v>3699</v>
       </c>
       <c r="H21" t="n">
         <v>19.9</v>
       </c>
-      <c r="I21" t="b">
-        <v>1</v>
-      </c>
-      <c r="J21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=79611&amp;msource=Msearch_colligation</t>
         </is>
@@ -3232,15 +3026,12 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H22" t="n">
         <v>60</v>
       </c>
-      <c r="I22" t="b">
-        <v>0</v>
-      </c>
-      <c r="J22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=79517&amp;msource=Msearch_colligation</t>
         </is>
@@ -3272,15 +3063,12 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H23" t="n">
         <v>21.9</v>
       </c>
-      <c r="I23" t="b">
-        <v>0</v>
-      </c>
-      <c r="J23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=80648&amp;msource=Msearch_colligation</t>
         </is>
@@ -3317,10 +3105,7 @@
       <c r="H24" t="n">
         <v>48</v>
       </c>
-      <c r="I24" t="b">
-        <v>0</v>
-      </c>
-      <c r="J24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=80337&amp;msource=Msearch_colligation</t>
         </is>
@@ -3357,10 +3142,7 @@
       <c r="H25" t="n">
         <v>55</v>
       </c>
-      <c r="I25" t="b">
-        <v>0</v>
-      </c>
-      <c r="J25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=79524&amp;msource=Msearch_colligation</t>
         </is>
@@ -3392,15 +3174,12 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H26" t="n">
         <v>65</v>
       </c>
-      <c r="I26" t="b">
-        <v>0</v>
-      </c>
-      <c r="J26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=77369&amp;msource=Msearch_colligation</t>
         </is>
@@ -3432,15 +3211,12 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="H27" t="n">
         <v>75</v>
       </c>
-      <c r="I27" t="b">
-        <v>0</v>
-      </c>
-      <c r="J27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=79322&amp;msource=Msearch_colligation</t>
         </is>
@@ -3477,10 +3253,7 @@
       <c r="H28" t="n">
         <v>88</v>
       </c>
-      <c r="I28" t="b">
-        <v>0</v>
-      </c>
-      <c r="J28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=80650&amp;msource=Msearch_colligation</t>
         </is>
@@ -3512,15 +3285,12 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H29" t="n">
         <v>60</v>
       </c>
-      <c r="I29" t="b">
-        <v>0</v>
-      </c>
-      <c r="J29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=80347&amp;msource=Msearch_colligation</t>
         </is>
@@ -3552,15 +3322,12 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H30" t="n">
         <v>93</v>
       </c>
-      <c r="I30" t="b">
-        <v>0</v>
-      </c>
-      <c r="J30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=81043&amp;msource=Msearch_colligation</t>
         </is>
@@ -3597,10 +3364,7 @@
       <c r="H31" t="n">
         <v>60</v>
       </c>
-      <c r="I31" t="b">
-        <v>0</v>
-      </c>
-      <c r="J31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=78902&amp;msource=Msearch_colligation</t>
         </is>
@@ -3632,15 +3396,12 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="H32" t="n">
         <v>49.9</v>
       </c>
-      <c r="I32" t="b">
-        <v>1</v>
-      </c>
-      <c r="J32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=80972&amp;msource=Msearch_colligation</t>
         </is>
@@ -3677,10 +3438,7 @@
       <c r="H33" t="n">
         <v>70</v>
       </c>
-      <c r="I33" t="b">
-        <v>1</v>
-      </c>
-      <c r="J33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=78896&amp;msource=Msearch_colligation</t>
         </is>
@@ -3712,15 +3470,12 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="H34" t="n">
         <v>58</v>
       </c>
-      <c r="I34" t="b">
-        <v>1</v>
-      </c>
-      <c r="J34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=79601&amp;msource=Msearch_colligation</t>
         </is>
@@ -3757,10 +3512,7 @@
       <c r="H35" t="n">
         <v>60</v>
       </c>
-      <c r="I35" t="b">
-        <v>0</v>
-      </c>
-      <c r="J35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=80510&amp;msource=Msearch_colligation</t>
         </is>
@@ -3792,15 +3544,12 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>4286</v>
+        <v>4287</v>
       </c>
       <c r="H36" t="n">
         <v>75</v>
       </c>
-      <c r="I36" t="b">
-        <v>1</v>
-      </c>
-      <c r="J36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=76891&amp;msource=Msearch_colligation</t>
         </is>
@@ -3839,10 +3588,7 @@
           <t>不可售</t>
         </is>
       </c>
-      <c r="I37" t="b">
-        <v>0</v>
-      </c>
-      <c r="J37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=80825&amp;msource=Msearch_colligation</t>
         </is>
@@ -3874,17 +3620,14 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
           <t>不可售</t>
         </is>
       </c>
-      <c r="I38" t="b">
-        <v>0</v>
-      </c>
-      <c r="J38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=81174&amp;msource=Msearch_colligation</t>
         </is>
@@ -3916,15 +3659,12 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="H39" t="n">
         <v>75</v>
       </c>
-      <c r="I39" t="b">
-        <v>0</v>
-      </c>
-      <c r="J39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=80645&amp;msource=Msearch_colligation</t>
         </is>
@@ -3956,17 +3696,14 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
           <t>不可售</t>
         </is>
       </c>
-      <c r="I40" t="b">
-        <v>0</v>
-      </c>
-      <c r="J40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=81183&amp;msource=Msearch_colligation</t>
         </is>
@@ -3998,15 +3735,12 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H41" t="n">
         <v>680</v>
       </c>
-      <c r="I41" t="b">
-        <v>1</v>
-      </c>
-      <c r="J41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=80957&amp;msource=Msearch_colligation</t>
         </is>
@@ -4024,7 +3758,6 @@
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -4038,7 +3771,6 @@
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -4057,7 +3789,6 @@
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
